--- a/natmiOut/OldD0/LR-pairs_lrc2p/H2-K1-Aplp2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/H2-K1-Aplp2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>245.035198217883</v>
+        <v>282.5164233333333</v>
       </c>
       <c r="H2">
-        <v>245.035198217883</v>
+        <v>847.54927</v>
       </c>
       <c r="I2">
-        <v>0.7239234941087556</v>
+        <v>0.7504954445259187</v>
       </c>
       <c r="J2">
-        <v>0.7239234941087556</v>
+        <v>0.7504954445259185</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.9570380989361</v>
+        <v>96.88352066666666</v>
       </c>
       <c r="N2">
-        <v>86.9570380989361</v>
+        <v>290.650562</v>
       </c>
       <c r="O2">
-        <v>0.4154185686171715</v>
+        <v>0.4395029568526832</v>
       </c>
       <c r="P2">
-        <v>0.4154185686171715</v>
+        <v>0.4395029568526832</v>
       </c>
       <c r="Q2">
-        <v>21307.53506701281</v>
+        <v>27371.18573868774</v>
       </c>
       <c r="R2">
-        <v>21307.53506701281</v>
+        <v>246340.6716481897</v>
       </c>
       <c r="S2">
-        <v>0.3007312617110006</v>
+        <v>0.3298449669736101</v>
       </c>
       <c r="T2">
-        <v>0.3007312617110006</v>
+        <v>0.3298449669736101</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>245.035198217883</v>
+        <v>282.5164233333333</v>
       </c>
       <c r="H3">
-        <v>245.035198217883</v>
+        <v>847.54927</v>
       </c>
       <c r="I3">
-        <v>0.7239234941087556</v>
+        <v>0.7504954445259187</v>
       </c>
       <c r="J3">
-        <v>0.7239234941087556</v>
+        <v>0.7504954445259185</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.1505558955666</v>
+        <v>80.72275766666667</v>
       </c>
       <c r="N3">
-        <v>80.1505558955666</v>
+        <v>242.168273</v>
       </c>
       <c r="O3">
-        <v>0.3829020621208836</v>
+        <v>0.3661911792188718</v>
       </c>
       <c r="P3">
-        <v>0.3829020621208836</v>
+        <v>0.3661911792188718</v>
       </c>
       <c r="Q3">
-        <v>19639.70735114367</v>
+        <v>22805.50477759008</v>
       </c>
       <c r="R3">
-        <v>19639.70735114367</v>
+        <v>205249.5429983107</v>
       </c>
       <c r="S3">
-        <v>0.2771917987119978</v>
+        <v>0.2748248118293375</v>
       </c>
       <c r="T3">
-        <v>0.2771917987119978</v>
+        <v>0.2748248118293375</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>245.035198217883</v>
+        <v>282.5164233333333</v>
       </c>
       <c r="H4">
-        <v>245.035198217883</v>
+        <v>847.54927</v>
       </c>
       <c r="I4">
-        <v>0.7239234941087556</v>
+        <v>0.7504954445259187</v>
       </c>
       <c r="J4">
-        <v>0.7239234941087556</v>
+        <v>0.7504954445259185</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.2163136690261</v>
+        <v>42.83255866666667</v>
       </c>
       <c r="N4">
-        <v>42.2163136690261</v>
+        <v>128.497676</v>
       </c>
       <c r="O4">
-        <v>0.201679369261945</v>
+        <v>0.194305863928445</v>
       </c>
       <c r="P4">
-        <v>0.201679369261945</v>
+        <v>0.194305863928445</v>
       </c>
       <c r="Q4">
-        <v>10344.48278791813</v>
+        <v>12100.90127672184</v>
       </c>
       <c r="R4">
-        <v>10344.48278791813</v>
+        <v>108908.1114904965</v>
       </c>
       <c r="S4">
-        <v>0.1460004336857572</v>
+        <v>0.145825665722971</v>
       </c>
       <c r="T4">
-        <v>0.1460004336857572</v>
+        <v>0.145825665722971</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>68.23132876063219</v>
+        <v>68.514867</v>
       </c>
       <c r="H5">
-        <v>68.23132876063219</v>
+        <v>205.544601</v>
       </c>
       <c r="I5">
-        <v>0.2015802720724194</v>
+        <v>0.1820074562714184</v>
       </c>
       <c r="J5">
-        <v>0.2015802720724194</v>
+        <v>0.1820074562714184</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.9570380989361</v>
+        <v>96.88352066666666</v>
       </c>
       <c r="N5">
-        <v>86.9570380989361</v>
+        <v>290.650562</v>
       </c>
       <c r="O5">
-        <v>0.4154185686171715</v>
+        <v>0.4395029568526832</v>
       </c>
       <c r="P5">
-        <v>0.4154185686171715</v>
+        <v>0.4395029568526832</v>
       </c>
       <c r="Q5">
-        <v>5933.194254579328</v>
+        <v>6637.961532968417</v>
       </c>
       <c r="R5">
-        <v>5933.194254579328</v>
+        <v>59741.65379671576</v>
       </c>
       <c r="S5">
-        <v>0.08374018808578447</v>
+        <v>0.07999281520052383</v>
       </c>
       <c r="T5">
-        <v>0.08374018808578447</v>
+        <v>0.07999281520052381</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>68.23132876063219</v>
+        <v>68.514867</v>
       </c>
       <c r="H6">
-        <v>68.23132876063219</v>
+        <v>205.544601</v>
       </c>
       <c r="I6">
-        <v>0.2015802720724194</v>
+        <v>0.1820074562714184</v>
       </c>
       <c r="J6">
-        <v>0.2015802720724194</v>
+        <v>0.1820074562714184</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.1505558955666</v>
+        <v>80.72275766666667</v>
       </c>
       <c r="N6">
-        <v>80.1505558955666</v>
+        <v>242.168273</v>
       </c>
       <c r="O6">
-        <v>0.3829020621208836</v>
+        <v>0.3661911792188718</v>
       </c>
       <c r="P6">
-        <v>0.3829020621208836</v>
+        <v>0.3661911792188718</v>
       </c>
       <c r="Q6">
-        <v>5468.778929657831</v>
+        <v>5530.709005404897</v>
       </c>
       <c r="R6">
-        <v>5468.778929657831</v>
+        <v>49776.38104864407</v>
       </c>
       <c r="S6">
-        <v>0.07718550185941815</v>
+        <v>0.06664952503865795</v>
       </c>
       <c r="T6">
-        <v>0.07718550185941815</v>
+        <v>0.06664952503865794</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>68.23132876063219</v>
+        <v>68.514867</v>
       </c>
       <c r="H7">
-        <v>68.23132876063219</v>
+        <v>205.544601</v>
       </c>
       <c r="I7">
-        <v>0.2015802720724194</v>
+        <v>0.1820074562714184</v>
       </c>
       <c r="J7">
-        <v>0.2015802720724194</v>
+        <v>0.1820074562714184</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.2163136690261</v>
+        <v>42.83255866666667</v>
       </c>
       <c r="N7">
-        <v>42.2163136690261</v>
+        <v>128.497676</v>
       </c>
       <c r="O7">
-        <v>0.201679369261945</v>
+        <v>0.194305863928445</v>
       </c>
       <c r="P7">
-        <v>0.201679369261945</v>
+        <v>0.194305863928445</v>
       </c>
       <c r="Q7">
-        <v>2880.475177013291</v>
+        <v>2934.667060316364</v>
       </c>
       <c r="R7">
-        <v>2880.475177013291</v>
+        <v>26412.00354284728</v>
       </c>
       <c r="S7">
-        <v>0.04065458212721682</v>
+        <v>0.03536511603223663</v>
       </c>
       <c r="T7">
-        <v>0.04065458212721682</v>
+        <v>0.03536511603223663</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.2156471903911</v>
+        <v>25.40860066666666</v>
       </c>
       <c r="H8">
-        <v>25.2156471903911</v>
+        <v>76.22580199999999</v>
       </c>
       <c r="I8">
-        <v>0.07449623381882503</v>
+        <v>0.06749709920266306</v>
       </c>
       <c r="J8">
-        <v>0.07449623381882503</v>
+        <v>0.06749709920266304</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>86.9570380989361</v>
+        <v>96.88352066666666</v>
       </c>
       <c r="N8">
-        <v>86.9570380989361</v>
+        <v>290.650562</v>
       </c>
       <c r="O8">
-        <v>0.4154185686171715</v>
+        <v>0.4395029568526832</v>
       </c>
       <c r="P8">
-        <v>0.4154185686171715</v>
+        <v>0.4395029568526832</v>
       </c>
       <c r="Q8">
-        <v>2192.67799342417</v>
+        <v>2461.674687800079</v>
       </c>
       <c r="R8">
-        <v>2192.67799342417</v>
+        <v>22155.07219020072</v>
       </c>
       <c r="S8">
-        <v>0.03094711882038641</v>
+        <v>0.0296651746785493</v>
       </c>
       <c r="T8">
-        <v>0.03094711882038641</v>
+        <v>0.02966517467854929</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.2156471903911</v>
+        <v>25.40860066666666</v>
       </c>
       <c r="H9">
-        <v>25.2156471903911</v>
+        <v>76.22580199999999</v>
       </c>
       <c r="I9">
-        <v>0.07449623381882503</v>
+        <v>0.06749709920266306</v>
       </c>
       <c r="J9">
-        <v>0.07449623381882503</v>
+        <v>0.06749709920266304</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1505558955666</v>
+        <v>80.72275766666667</v>
       </c>
       <c r="N9">
-        <v>80.1505558955666</v>
+        <v>242.168273</v>
       </c>
       <c r="O9">
-        <v>0.3829020621208836</v>
+        <v>0.3661911792188718</v>
       </c>
       <c r="P9">
-        <v>0.3829020621208836</v>
+        <v>0.3661911792188718</v>
       </c>
       <c r="Q9">
-        <v>2021.048139576329</v>
+        <v>2051.052314264438</v>
       </c>
       <c r="R9">
-        <v>2021.048139576329</v>
+        <v>18459.47082837994</v>
       </c>
       <c r="S9">
-        <v>0.02852476154946761</v>
+        <v>0.02471684235087636</v>
       </c>
       <c r="T9">
-        <v>0.02852476154946761</v>
+        <v>0.02471684235087635</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.2156471903911</v>
+        <v>25.40860066666666</v>
       </c>
       <c r="H10">
-        <v>25.2156471903911</v>
+        <v>76.22580199999999</v>
       </c>
       <c r="I10">
-        <v>0.07449623381882503</v>
+        <v>0.06749709920266306</v>
       </c>
       <c r="J10">
-        <v>0.07449623381882503</v>
+        <v>0.06749709920266304</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>42.2163136690261</v>
+        <v>42.83255866666667</v>
       </c>
       <c r="N10">
-        <v>42.2163136690261</v>
+        <v>128.497676</v>
       </c>
       <c r="O10">
-        <v>0.201679369261945</v>
+        <v>0.194305863928445</v>
       </c>
       <c r="P10">
-        <v>0.201679369261945</v>
+        <v>0.194305863928445</v>
       </c>
       <c r="Q10">
-        <v>1064.511671157047</v>
+        <v>1088.315378692906</v>
       </c>
       <c r="R10">
-        <v>1064.511671157047</v>
+        <v>9794.838408236152</v>
       </c>
       <c r="S10">
-        <v>0.01502435344897101</v>
+        <v>0.0131150821732374</v>
       </c>
       <c r="T10">
-        <v>0.01502435344897101</v>
+        <v>0.0131150821732374</v>
       </c>
     </row>
   </sheetData>
